--- a/TechParvaLEAO/Uploads/DownloadTemplate (6).xlsx
+++ b/TechParvaLEAO/Uploads/DownloadTemplate (6).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya.mishra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192D05DF-8734-4053-8015-2AD5C88157A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F037A131-F6B2-4C8F-A657-5684B7BAFEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4145" uniqueCount="2133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="2111">
   <si>
     <t>Employee Code</t>
   </si>
@@ -6335,12 +6335,6 @@
     <t>Rule 2</t>
   </si>
   <si>
-    <t>C5324</t>
-  </si>
-  <si>
-    <t>DEBASHIS SAHOO</t>
-  </si>
-  <si>
     <t>EMPLOYEE</t>
   </si>
   <si>
@@ -6359,73 +6353,13 @@
     <t>YES</t>
   </si>
   <si>
-    <t>C5328</t>
-  </si>
-  <si>
-    <t>RUPESH DEBATA</t>
-  </si>
-  <si>
-    <t>C5329</t>
-  </si>
-  <si>
-    <t>PRAVASH BEHERA</t>
-  </si>
-  <si>
-    <t>C5330</t>
-  </si>
-  <si>
-    <t>GOBINDA PRADHAN</t>
-  </si>
-  <si>
-    <t>C5331</t>
-  </si>
-  <si>
-    <t>C5332</t>
-  </si>
-  <si>
-    <t>SUBRAT BAL</t>
-  </si>
-  <si>
-    <t>C5338</t>
-  </si>
-  <si>
-    <t>SOURAV KUMAR DAS</t>
-  </si>
-  <si>
-    <t>C5339</t>
-  </si>
-  <si>
-    <t>NAYAN JYOTI SAHOO</t>
-  </si>
-  <si>
-    <t>C5340</t>
-  </si>
-  <si>
-    <t>JAGRUTI PANDA</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>C5341</t>
-  </si>
-  <si>
-    <t>GYANENDRA BARIK</t>
-  </si>
-  <si>
-    <t>C5342</t>
-  </si>
-  <si>
-    <t>OM PRAKASH SAHOO</t>
-  </si>
-  <si>
-    <t>C5348</t>
-  </si>
-  <si>
-    <t>SURENDRA DAS</t>
-  </si>
-  <si>
     <t>priyatiwarijune2023@gmail.com</t>
+  </si>
+  <si>
+    <t>DEBASHIS SAHOO test</t>
+  </si>
+  <si>
+    <t>C5325123</t>
   </si>
 </sst>
 </file>
@@ -6433,7 +6367,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -6581,7 +6515,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="19" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6609,10 +6543,10 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -6647,8 +6581,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T13" totalsRowShown="0">
-  <autoFilter ref="A1:T13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:T2" totalsRowShown="0">
+  <autoFilter ref="A1:T2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="20">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Employee Code"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Employee"/>
@@ -7041,10 +6975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:M12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7113,10 +7047,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2102</v>
+        <v>2110</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>42</v>
@@ -7125,23 +7059,23 @@
         <v>310</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>2132</v>
+        <v>2108</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="L2" s="6">
         <v>45139</v>
@@ -7150,613 +7084,19 @@
         <v>36562</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2110</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2111</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K3" s="4" t="s">
         <v>2107</v>
-      </c>
-      <c r="L3" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M3" s="6">
-        <v>35467</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2112</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2113</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L4" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M4" s="6">
-        <v>35954</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2114</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2115</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L5" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M5" s="6">
-        <v>36278</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2116</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L6" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M6" s="6">
-        <v>36508</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2117</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2118</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L7" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M7" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>2119</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L8" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M8" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>2121</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>2122</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L9" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M9" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2123</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2124</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>2125</v>
-      </c>
-      <c r="L10" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M10" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>2126</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L11" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M11" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>2128</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>2129</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L12" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M12" s="6">
-        <v>34479</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>2109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>2130</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2131</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>2105</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>2132</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="L13" s="6">
-        <v>45139</v>
-      </c>
-      <c r="M13" s="6">
-        <v>37723</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>2108</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>2109</v>
       </c>
     </row>
   </sheetData>
